--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -381,7 +381,7 @@
   <dimension ref="B2:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,34 +525,70 @@
       <c r="B8" t="s">
         <v>2</v>
       </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
       <c r="E8">
         <f t="shared" ref="E8:E12" si="1">C8+D8</f>
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>35</v>
+      </c>
+      <c r="G8">
+        <v>2.5</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37.5</v>
+      </c>
+      <c r="I8">
+        <v>18</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K7:K12" si="2">I8+J8</f>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="F9">
+        <v>42</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="I9">
+        <v>55</v>
+      </c>
+      <c r="J9">
+        <v>18</v>
       </c>
       <c r="K9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -569,13 +605,25 @@
         <f t="shared" si="1"/>
         <v>38.5</v>
       </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>0.5</v>
+      </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
+      </c>
+      <c r="I11">
+        <v>19</v>
+      </c>
+      <c r="J11">
+        <v>0.5</v>
       </c>
       <c r="K11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -592,13 +640,25 @@
         <f t="shared" si="1"/>
         <v>356</v>
       </c>
+      <c r="F12">
+        <v>56</v>
+      </c>
+      <c r="G12">
+        <v>0.5</v>
+      </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56.5</v>
+      </c>
+      <c r="I12">
+        <v>160</v>
+      </c>
+      <c r="J12">
+        <v>0.5</v>
       </c>
       <c r="K12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>160.5</v>
       </c>
     </row>
   </sheetData>

--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Render 1000 components</t>
   </si>
@@ -59,11 +59,20 @@
   <si>
     <t>React 16.2.0</t>
   </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>React</t>
+  </si>
+  <si>
+    <t>Vue</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,6 +122,5985 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Render</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 1000 components</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Click event</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$D$2,Sheet1!$G$2,Sheet1!$J$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Angular</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>React</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$5,Sheet1!$F$5,Sheet1!$I$5)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDB6-456E-A35E-2CBCAE3939D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recalculate Style</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$D$2,Sheet1!$G$2,Sheet1!$J$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Angular</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>React</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$5,Sheet1!$G$5,Sheet1!$J$5)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EDB6-456E-A35E-2CBCAE3939D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2122167039"/>
+        <c:axId val="2129197823"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="2122167039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2129197823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="2129197823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2122167039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="40"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Render</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 10000 components</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Click event</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$D$2,Sheet1!$G$2,Sheet1!$J$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Angular</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>React</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$6,Sheet1!$F$6,Sheet1!$I$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>832</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC4F-40E7-98E4-A38E901C37C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recalculate Style</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$D$2,Sheet1!$G$2,Sheet1!$J$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Angular</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>React</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$6,Sheet1!$G$6,Sheet1!$J$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1067</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>729</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BC4F-40E7-98E4-A38E901C37C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2122167039"/>
+        <c:axId val="2129197823"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="2122167039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2129197823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="2129197823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2122167039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="400"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Update</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 100 components</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Click event</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$D$2,Sheet1!$G$2,Sheet1!$J$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Angular</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>React</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$8,Sheet1!$F$8,Sheet1!$I$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B1E-47F4-B587-C56A17E02B2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recalculate Style</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$D$2,Sheet1!$G$2,Sheet1!$J$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Angular</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>React</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$8,Sheet1!$G$8,Sheet1!$J$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7B1E-47F4-B587-C56A17E02B2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2122167039"/>
+        <c:axId val="2129197823"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="2122167039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2129197823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="2129197823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2122167039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Update</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 1000 components</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Click event</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$D$2,Sheet1!$G$2,Sheet1!$J$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Angular</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>React</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$9,Sheet1!$F$9,Sheet1!$I$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9827-4002-BB8A-148D68D906C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recalculate Style</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$D$2,Sheet1!$G$2,Sheet1!$J$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Angular</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>React</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$9,Sheet1!$G$9,Sheet1!$J$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9827-4002-BB8A-148D68D906C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2122167039"/>
+        <c:axId val="2129197823"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="2122167039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2129197823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="2129197823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2122167039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Delete</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 1000 components</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Click event</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$D$2,Sheet1!$G$2,Sheet1!$J$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Angular</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>React</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$11,Sheet1!$F$11,Sheet1!$I$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C33-47C1-9D04-A5F21CEB7504}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recalculate Style</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$D$2,Sheet1!$G$2,Sheet1!$J$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Angular</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>React</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$11,Sheet1!$G$11,Sheet1!$J$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4C33-47C1-9D04-A5F21CEB7504}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2122167039"/>
+        <c:axId val="2129197823"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="2122167039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2129197823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="2129197823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2122167039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Delete</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 1000 components</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Click event</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$D$2,Sheet1!$G$2,Sheet1!$J$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Angular</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>React</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$12,Sheet1!$F$12,Sheet1!$I$12)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-28BB-426A-8B02-79C9CAEE87CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recalculate Style</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$D$2,Sheet1!$G$2,Sheet1!$J$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Angular</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>React</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$12,Sheet1!$G$12,Sheet1!$J$12)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-28BB-426A-8B02-79C9CAEE87CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2122167039"/>
+        <c:axId val="2129197823"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="2122167039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2129197823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="2129197823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2122167039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="100"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51422A4B-16B8-4702-A78D-39BAF34F9B6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CAB768A-AA87-4848-AAFB-145657CC1AC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FB7D705-D902-4E0B-A549-014719523CB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74645AB1-EDE2-43CC-BCF9-D0BEF45F1632}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E13AAFF6-2CD4-4948-9B45-EAC433E81FE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CB700E8-D864-422A-B116-ED3C9BD380C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,11 +6365,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="S54" sqref="S54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,6 +6391,15 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
@@ -552,7 +6549,7 @@
         <v>4</v>
       </c>
       <c r="K8">
-        <f t="shared" ref="K7:K12" si="2">I8+J8</f>
+        <f t="shared" ref="K8:K12" si="2">I8+J8</f>
         <v>22</v>
       </c>
     </row>
@@ -669,5 +6666,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -1,8 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D793D1AB-985E-4477-B25D-57346C7EE1E2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1228,6 +1229,7 @@
         <c:axId val="2129197823"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="80"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1278,7 +1280,7 @@
         <c:crossAx val="2122167039"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="10"/>
+        <c:majorUnit val="20"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2054,6 +2056,7 @@
         <c:axId val="2129197823"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6368,8 +6371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="S54" sqref="S54"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
